--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl21b-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl21b-Ackr2.xlsx
@@ -537,10 +537,10 @@
         <v>1.189399</v>
       </c>
       <c r="I2">
-        <v>0.8220900069740165</v>
+        <v>0.6167434528639912</v>
       </c>
       <c r="J2">
-        <v>0.8220900069740164</v>
+        <v>0.6167434528639911</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -567,10 +567,10 @@
         <v>41.09575029190599</v>
       </c>
       <c r="S2">
-        <v>0.8220900069740165</v>
+        <v>0.6167434528639912</v>
       </c>
       <c r="T2">
-        <v>0.8220900069740164</v>
+        <v>0.6167434528639911</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,22 +587,22 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0858</v>
+        <v>0.246372</v>
       </c>
       <c r="H3">
-        <v>0.2574</v>
+        <v>0.739116</v>
       </c>
       <c r="I3">
-        <v>0.1779099930259836</v>
+        <v>0.3832565471360088</v>
       </c>
       <c r="J3">
-        <v>0.1779099930259836</v>
+        <v>0.3832565471360088</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.9881784484</v>
+        <v>2.837523318056</v>
       </c>
       <c r="R3">
-        <v>8.8936060356</v>
+        <v>25.537709862504</v>
       </c>
       <c r="S3">
-        <v>0.1779099930259836</v>
+        <v>0.3832565471360088</v>
       </c>
       <c r="T3">
-        <v>0.1779099930259836</v>
+        <v>0.3832565471360088</v>
       </c>
     </row>
   </sheetData>
